--- a/result_full.xlsx
+++ b/result_full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2008 Scion xB</t>
+          <t>2016 Acura MDX</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$3,000</t>
+          <t>$31,500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Ebony, Leather-Trimmed Interior']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'VIN': 'JTLKE50E681012537', 'Full Style Name': '5dr Wagon Auto', 'Mileage': '177,820 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '158 HP @ 6000 RPM 4 cylinder, 2.4L', 'Fuel Economy': '22 MPG city 28 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
+          <t>{'VIN': '5FRYD4H47GB052726', 'Trim': 'w/Tech/AcuraWatch Plus', 'Full Style Name': 'SH-AWD 4dr w/Tech/AcuraWatch Plus', 'Mileage': '65,870 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '18 MPG city 26 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2010 Scion xB</t>
+          <t>2019 Acura MDX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$6,805</t>
+          <t>$45,850</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Parchment, Perforated Premium Leather Trimmed Seats']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'VIN': 'JTLZE4FE7A1106593', 'Full Style Name': '5dr Wagon Auto', 'Mileage': '114,000 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '158 HP @ 6000 RPM 4 cylinder, 2.4L', 'Fuel Economy': '22 MPG city 28 MPG highway 24 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
+          <t>{'VIN': '5J8YD7H52KL001573', 'Trim': 'Sport Hybrid w/Technology Pkg', 'Full Style Name': 'SH-AWD Sport Hybrid w/Technology Package', 'Mileage': '17,350 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '321 HP @ 6300 RPM 6 cylinder, 3.0L', 'Fuel Economy': '26 MPG city 27 MPG highway 27 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2001 Subaru Impreza Wagon</t>
+          <t>2004 Acura TL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$2,068</t>
+          <t>$4,999</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'VIN': 'JF1GF48561G802717', 'Trim': 'Outback Sport', 'Full Style Name': '5dr Wagon Outback Sport Manual', 'Mileage': '300,000 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Manual', 'Drive Type': 'All Wheel Drive', 'Engine': '142 HP @ 5600 RPM 4 cylinder, 2.2L', 'Fuel Economy': '23 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Green'}</t>
+          <t>{'VIN': '19UUA66214A061935', 'Full Style Name': '4dr Sedan 3.2L Auto w/Navigation', 'Mileage': '168,805 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '270 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '20 MPG city 28 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2008 Subaru Impreza Wagon</t>
+          <t>2006 Acura TL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$14,500</t>
+          <t>$6,800</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'VIN': 'JF1GR89648L830751', 'Trim': 'STI', 'Full Style Name': '5dr Manual STI', 'Mileage': '125,700 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Manual', 'Drive Type': 'All Wheel Drive', 'Engine': '305 HP @ 6000 RPM 4 cylinder, 2.5L', 'Fuel Economy': '17 MPG city 23 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+          <t>{'VIN': '19UUA662X6A039032', 'Full Style Name': '4dr Sedan AT', 'Mileage': '100,000 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '258 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '20 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2004 Mazda 3</t>
+          <t>2008 Acura TL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$3,109</t>
+          <t>$6,289</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['4-Speed Sport Automatic Transmission w/OD']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'VIN': 'JM1BK143541209506', 'Trim': 's', 'Full Style Name': '5dr Wagon s Auto', 'Mileage': '251,514 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '160 HP @ 6500 RPM 4 cylinder, 2.3L', 'Fuel Economy': '24 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+          <t>{'VIN': '19UUA66218A010540', 'Full Style Name': '4dr Sedan Auto', 'Mileage': '217,500 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '258 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '18 MPG city 26 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2013 Subaru Impreza Wagon WRX</t>
+          <t>2007 Acura MDX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$18,623</t>
+          <t>$7,600</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'VIN': 'JF1GR7E64DG201445', 'Trim': 'WRX', 'Full Style Name': '5dr Manual WRX', 'Mileage': '69,976 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Manual', 'Drive Type': 'All Wheel Drive', 'Engine': '265 HP @ 6000 RPM 4 cylinder, 2.5L', 'Fuel Economy': '19 MPG city 25 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
+          <t>{'VIN': '2HNYD28447H513813', 'Trim': 'Tech/Entertainment Pkg', 'Full Style Name': '4WD 4dr Tech/Entertainment Package', 'Mileage': '127,581 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 6000 RPM 6 cylinder, 3.7L', 'Fuel Economy': '17 MPG city 22 MPG highway', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Green'}</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2013 Nissan JUKE</t>
+          <t>2017 Acura TLX</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$14,000</t>
+          <t>$23,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Black, Cloth Seat Trim']</t>
+          <t>['Graystone, Perforated Milano Premium Leather Trimmed Seats']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'VIN': 'JN8AF5MR5DT214659', 'Trim': 'SV', 'Full Style Name': '5dr Wagon CVT SV FWD', 'Mileage': '70,000 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '188 HP @ 5600 RPM 4 cylinder, 1.6L', 'Fuel Economy': '27 MPG city 32 MPG highway 29 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
+          <t>{'VIN': '19UUB1F5XHA011048', 'Trim': 'w/Technology Pkg', 'Full Style Name': 'FWD w/Technology Package', 'Mileage': '40,000 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '206 HP @ 6800 RPM 4 cylinder, 2.4L', 'Fuel Economy': '24 MPG city 35 MPG highway 28 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Blue'}</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2007 Suzuki Forenza</t>
+          <t>2000 Acura TL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$3,147</t>
+          <t>$3,900</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'VIN': 'KL5JD86Z97K539590', 'Full Style Name': '4dr Wagon Auto', 'Mileage': '122,500 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '126 HP @ 5600 RPM 4 cylinder, 2.0L', 'Fuel Economy': '21 MPG city 30 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Blue'}</t>
+          <t>{'VIN': '19UUA5663YA022850', 'Full Style Name': '4dr Sedan 3.2L', 'Mileage': '135,000 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '225 HP @ 5600 RPM 6 cylinder, 3.2L', 'Fuel Economy': '19 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Green'}</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2009 Scion xB</t>
+          <t>2016 Acura RDX</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOLD</t>
+          <t>$25,979</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Graystone, Perforated Leather-Trimmed Interior']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'VIN': 'JTLKE50E491090610', 'Full Style Name': '5dr Wagon Auto', 'Mileage': '159,900 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '158 HP @ 6000 RPM 4 cylinder, 2.4L', 'Fuel Economy': '22 MPG city 28 MPG highway 24 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Teal'}</t>
+          <t>{'VIN': '5J8TB3H56GL000247', 'Trim': 'Tech Pkg', 'Full Style Name': 'FWD 4dr Tech Package', 'Mileage': '42,765 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '279 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 29 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2012 Volvo XC70</t>
+          <t>2010 Acura TL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$11,569</t>
+          <t>$8,500</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Ebony, Leather Seat Trim']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'VIN': 'YV4952BLXC1143836', 'Trim': '3.2L Premier', 'Full Style Name': 'FWD 4dr Wagon 3.2L Premier', 'Mileage': '125,000 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '240 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '19 MPG city 25 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Brown'}</t>
+          <t>{'VIN': '19UUA9F52AA007342', 'Trim': 'Tech HPT Auto', 'Full Style Name': '4dr Sedan Auto SH-AWD Tech HPT', 'Mileage': '155,400 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '305 HP @ 6300 RPM 6 cylinder, 3.7L', 'Fuel Economy': '17 MPG city 25 MPG highway 20 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'White'}</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Subaru Impreza Wagon</t>
+          <t>2012 Acura MDX</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$6,000</t>
+          <t>$8,500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Ebony, Seat Trim']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'VIN': 'JF1GH61608H835905', 'Trim': 'i', 'Full Style Name': '5dr Auto i', 'Mileage': '148,212 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '170 HP @ 6000 RPM 4 cylinder, 2.5L', 'Fuel Economy': '20 MPG city 27 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Charcoal'}</t>
+          <t>{'VIN': '2HNYD2H21CH504155', 'Full Style Name': 'AWD 4dr', 'Mileage': '198,000 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 6300 RPM 6 cylinder, 3.7L', 'Fuel Economy': '16 MPG city 21 MPG highway 18 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Silver'}</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2010 Toyota Venza</t>
+          <t>2015 Acura TLX</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$9,800</t>
+          <t>$16,500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['Ivory, Leather Seat Trim']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'VIN': '4T3ZK3BB9AU027390', 'Full Style Name': '4dr Wagon V6 FWD', 'Mileage': '94,700 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '268 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 26 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gold'}</t>
+          <t>{'VIN': '19UUB2F58FA021371', 'Trim': 'V6 Tech', 'Full Style Name': '4dr Sedan FWD V6 Tech', 'Mileage': '77,800 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '21 MPG city 34 MPG highway 25 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'White'}</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R's 2003 Mazda Protege5</t>
+          <t>2008 Acura MDX</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SOLD</t>
+          <t>$8,999</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'VIN': 'JM1BJ245031168906', 'Full Style Name': '5dr Wagon Auto', 'Mileage': '115,110 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '130 HP @ 6000 RPM 4 cylinder, 2.0L', 'Fuel Economy': '25 MPG city 30 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+          <t>{'VIN': '2HNYD28658H554440', 'Trim': 'Tech/Pwr Tail Gate', 'Full Style Name': '4WD 4dr Tech/Pwr Tail Gate', 'Mileage': '155,000 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 6000 RPM 6 cylinder, 3.7L', 'Fuel Economy': '15 MPG city 20 MPG highway', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Silver'}</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Luisa's 2004 Mercedes-Benz E-Class</t>
+          <t>2008 Acura MDX</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$4,000</t>
+          <t>$9,100</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'VIN': 'WDBUH82J54X112089', 'Trim': '3.2L', 'Full Style Name': '4dr Wagon 3.2L 4MATIC', 'Mileage': '131,000 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '221 HP @ 5600 RPM 6 cylinder, 3.2L', 'Fuel Economy': '18 MPG city 23 MPG highway', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Silver'}</t>
+          <t>{'VIN': '2HNYD28618H544505', 'Trim': 'Tech/Pwr Tail Gate', 'Full Style Name': '4WD 4dr Tech/Pwr Tail Gate', 'Mileage': '159,134 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 6000 RPM 6 cylinder, 3.7L', 'Fuel Economy': '15 MPG city 20 MPG highway', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Blue'}</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Subaru Impreza Wagon WRX</t>
+          <t>2003 Acura MDX</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$24,995</t>
+          <t>$3,659</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'VIN': 'JF1GR7E60DG821449', 'Trim': 'WRX', 'Full Style Name': '5dr Manual WRX', 'Mileage': '59,871 mi.', 'Transmission': 'Manual', 'Drive Type': 'All Wheel Drive', 'Engine': '265 HP @ 6000 RPM 4 cylinder, 2.5L', 'Fuel Economy': '19 MPG city 25 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'White'}</t>
+          <t>{'VIN': '2HNYD18233H543923', 'Full Style Name': '4dr SUV', 'Mileage': '198,000 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '260 HP @ 5750 RPM 6 cylinder, 3.5L', 'Fuel Economy': '17 MPG city 23 MPG highway', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Blue'}</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2010 Toyota Venza</t>
+          <t>2011 Acura MDX</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$9,775</t>
+          <t>$12,900</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['Ivory, Leather Seat Trim']</t>
+          <t>['Taupe, Seat Trim']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>{'VIN': '4T3ZA3BB5AU029852', 'Full Style Name': '4dr Wagon I4 FWD', 'Mileage': '138,287 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '182 HP @ 5800 RPM 4 cylinder, 2.7L', 'Fuel Economy': '21 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
+          <t>{'VIN': '2HNYD2H78BH512201', 'Trim': 'Advance/Entertainment Pkg', 'Full Style Name': 'AWD 4dr Advance/Entertainment Package', 'Mileage': '162,749 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 6300 RPM 6 cylinder, 3.7L', 'Fuel Economy': '16 MPG city 21 MPG highway 18 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Black'}</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2004 Volvo V70</t>
+          <t>2016 Acura TLX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$21,000</t>
+          <t>$10,129</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Espresso, Premium Milano Perforated Leather Trimmed Seats']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{'VIN': 'YV1SJ52Y342369266', 'Trim': 'R', 'Full Style Name': '2.5L Turbo R AWD Manual w/Sunroof', 'Mileage': '170,000 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Manual', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 5500 RPM 5 cylinder, 2.5L', 'Fuel Economy': '18 MPG city 25 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+          <t>{'VIN': '19UUB2F50GA007594', 'Trim': 'V6 Tech', 'Full Style Name': '4dr Sedan FWD V6 Tech', 'Mileage': '199,200 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '21 MPG city 34 MPG highway 25 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2005 Chrysler Pacifica</t>
+          <t>2006 Acura TL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,700</t>
+          <t>$6,579</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['3.5l Mpi 24-Valve V6 Engine', '4-Speed Automatic Transmission w/Autostick', 'Premium Leather-Trimmed Bucket Seats']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>{'VIN': '2C4GM68495R588832', 'Trim': 'Touring', 'Full Style Name': '4dr Wagon Touring FWD', 'Mileage': '200,000 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '250 HP @ 6400 RPM 6 cylinder, 3.5L', 'Fuel Economy': '17 MPG city 23 MPG highway', 'Doors': '4', 'Passengers': '6', 'Exterior': 'Blue'}</t>
+          <t>{'VIN': '19UUA66206A037015', 'Full Style Name': '4dr Sedan AT', 'Mileage': '136,166 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '258 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '20 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Blue'}</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Subaru Impreza Wagon WRX</t>
+          <t>2016 Acura MDX</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$20,500</t>
+          <t>$28,750</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Parchment, Leather-Trimmed Interior']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>{'VIN': 'JF1GR7E66DG825991', 'Trim': 'WRX', 'Full Style Name': '5dr Manual WRX', 'Mileage': '77,000 mi.', 'Transmission': 'Manual', 'Drive Type': 'All Wheel Drive', 'Engine': '265 HP @ 6000 RPM 4 cylinder, 2.5L', 'Fuel Economy': '19 MPG city 25 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
+          <t>{'VIN': '5FRYD3H21GB016328', 'Full Style Name': 'FWD 4dr', 'Mileage': '56,584 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 27 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,672 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2004 Mazda 3</t>
+          <t>2010 Acura TSX</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SOLD</t>
+          <t>$11,449</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['4-Speed Sport Automatic Transmission w/OD']</t>
+          <t>['Taupe, Leather Seat Trim']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>{'VIN': 'JM1BK343341179451', 'Trim': 's', 'Full Style Name': '5dr Wagon s Auto', 'Mileage': '187,788 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '160 HP @ 6500 RPM 4 cylinder, 2.3L', 'Fuel Economy': '24 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Blue'}</t>
+          <t>{'VIN': 'JH4CU2F68AC036204', 'Trim': 'Tech Pkg', 'Full Style Name': '4dr Sedan I4 Auto Tech Package', 'Mileage': '98,000 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '201 HP @ 7000 RPM 4 cylinder, 2.4L', 'Fuel Economy': '21 MPG city 30 MPG highway 25 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2014 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$20,000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Graystone, Leather-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{'VIN': '5FRYD3H40EB018084', 'Trim': 'Tech Pkg', 'Full Style Name': 'FWD 4dr Tech Package', 'Mileage': '79,270 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 28 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2016 Acura ILX</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$19,000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Graystone, Perforated Leather-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UDE2F76GA012095', 'Trim': 'w/Premium Pkg', 'Full Style Name': '4dr Sedan w/Premium Package', 'Mileage': '73,518 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '201 HP @ 6800 RPM 4 cylinder, 2.4L', 'Fuel Economy': '25 MPG city 36 MPG highway 29 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$47,699</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Ebony, Perforated Premium Leather w/Contrast Stitching']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8YD4H50LL037374', 'Trim': 'w/Technology Pkg', 'Full Style Name': 'SH-AWD 7-Passenger w/Technology Package', 'Mileage': '8,724 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 26 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2008 Acura TL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$8,679</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUA662X8A007877', 'Trim': 'Nav', 'Full Style Name': '4dr Sedan Auto Nav', 'Mileage': '128,000 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '258 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '18 MPG city 26 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2014 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$21,000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['Graystone, Leather-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{'VIN': '5FRYD4H44EB047836', 'Trim': 'Tech Pkg', 'Full Style Name': 'SH-AWD 4dr Tech Package', 'Mileage': '92,150 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '18 MPG city 27 MPG highway 21 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Blue'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2016 Acura RDX</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$18,720</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Ebony, Leatherette-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8TB3H38GL010163', 'Full Style Name': 'FWD 4dr', 'Mileage': '73,578 mi.', 'Tire Mileage': 'Over 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '279 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 29 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Acura MDX</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$20,125</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{'VIN': '5FRYD4H9XGB015651', 'Trim': 'w/Advance', 'Full Style Name': 'SH-AWD 4dr w/Advance', 'Mileage': '140,766 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 26 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2008 Acura TSX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$7,699</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{'VIN': 'JH4CL968X8C005009', 'Full Style Name': '4dr Sedan Auto', 'Mileage': '135,053 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '205 HP @ 7000 RPM 4 cylinder, 2.4L', 'Fuel Economy': '20 MPG city 28 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$47,829</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['Parchment, Perforated Premium Leather w/Contrast Stitching']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8YD4H56LL027092', 'Trim': 'w/Technology Pkg', 'Full Style Name': 'SH-AWD 7-Passenger w/Technology Package', 'Mileage': '6,300 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 26 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2016 Acura ILX</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$15,999</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['Ebony, Leatherette-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UDE2F32GA013306', 'Full Style Name': '4dr Sedan', 'Mileage': '81,600 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '201 HP @ 6800 RPM 4 cylinder, 2.4L', 'Fuel Economy': '25 MPG city 36 MPG highway 29 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Black'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Acura TLX</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$17,951</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUB2F31GA009014', 'Trim': 'V6', 'Full Style Name': '4dr Sedan FWD V6', 'Mileage': '81,500 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '21 MPG city 34 MPG highway 25 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2013 Acura RDX</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$16,619</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['Ebony, Leather Seat Trim']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8TB3H58DL016817', 'Trim': 'Tech Pkg', 'Full Style Name': 'FWD 4dr Tech Package', 'Mileage': '73,000 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '273 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 28 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Acura RDX</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$15,000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8TB3H56DL012684', 'Trim': 'Tech Pkg', 'Full Style Name': 'FWD 4dr Tech Package', 'Mileage': '124,394 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '273 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 28 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'White'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Acura MDX</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$20,000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>{'VIN': '5FRYD3H42EB018426', 'Trim': 'Tech Pkg', 'Full Style Name': 'FWD 4dr Tech Package', 'Mileage': '85,000 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 28 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2019 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$38,000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['Ebony, Perforated Premium Leather w/Contrast Stitching']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8YD3H51KL011665', 'Trim': 'w/Technology Pkg', 'Full Style Name': 'FWD w/Technology Package', 'Mileage': '45,000 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 27 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Gray'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2014 Acura RLX</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$23,500</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['Ebony, Perforated Milano Premium Leather Seat Trim']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>{'VIN': 'JH4KC1F92EC000291', 'Trim': 'Advance Pkg', 'Full Style Name': '4dr Sedan Advance Package', 'Mileage': '60,000 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '310 HP @ 6500 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 31 MPG highway 24 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2007 Acura TL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$9,284</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUA66227A020332', 'Full Style Name': '4dr Sedan AT', 'Mileage': '119,881 mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '258 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '20 MPG city 28 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Charcoal'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Acura TL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$11,990</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUA65506A072021', 'Full Style Name': '4dr Sedan MT', 'Mileage': '123,500 mi.', 'Transmission': 'Manual', 'Drive Type': 'Front Wheel Drive', 'Engine': '258 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '20 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2015 Acura RDX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$19,800</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['Parchment, Perforated Leather-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8TB4H58FL018480', 'Trim': 'Tech Pkg', 'Full Style Name': 'AWD 4dr Tech Package', 'Mileage': '54,535 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '273 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 27 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'White'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>W's 2019 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$41,509</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['Ebony, Premium Leather-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8YD4H32KL021724', 'Full Style Name': 'SH-AWD', 'Mileage': '15,000 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '290 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 26 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'Black'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Acura RDX</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$23,990</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>{'VIN': '5J8TB4H59FL000151', 'Trim': 'Tech Pkg', 'Full Style Name': 'AWD 4dr Tech Package', 'Mileage': '57,000 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '273 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '19 MPG city 27 MPG highway 22 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>J's 2011 Acura MDX</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$31,500</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>{'VIN': '2HNYD2H71BH534136', 'Trim': 'Advance/Entertainment Pkg', 'Full Style Name': 'AWD 4dr Advance/Entertainment Package', 'Mileage': '40,500 mi.', 'Transmission': 'Automatic', 'Drive Type': 'All Wheel Drive', 'Engine': '300 HP @ 6300 RPM 6 cylinder, 3.7L', 'Fuel Economy': '16 MPG city 21 MPG highway 18 MPG combined', 'Doors': '4', 'Passengers': '7', 'Exterior': 'White'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2012 Acura TL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$12,000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['Ebony, Leather Seat Trim']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUA8F57CA039717', 'Trim': 'Tech Auto', 'Full Style Name': '4dr Sedan Auto 2WD Tech', 'Mileage': '124,042 mi.', 'Tire Mileage': 'Under 5K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '280 HP @ 6200 RPM 6 cylinder, 3.5L', 'Fuel Economy': '20 MPG city 29 MPG highway 23 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2012 Acura TSX</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$9,999</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['Taupe, Leather Seat Trim']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>{'VIN': 'JH4CU2F40CC012013', 'Full Style Name': '4dr Sedan I4 Auto', 'Mileage': '106,000 mi.', 'Tire Mileage': '20 to 30K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '201 HP @ 7000 RPM 4 cylinder, 2.4L', 'Fuel Economy': '22 MPG city 31 MPG highway 26 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Maroon'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020 Acura TLX</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$35,229</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['Red, Prem Perforated Milano Leather-Trimmed Interior']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUB1F60LA010749', 'Trim': 'w/A-Spec Pkg Red Leather', 'Full Style Name': '2.4L FWD w/A-Spec Package Red Leather', 'Mileage': '16,000 mi.', 'Tire Mileage': '10 to 20K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '206 HP @ 6800 RPM 4 cylinder, 2.4L', 'Fuel Economy': '23 MPG city 32 MPG highway 26 MPG combined', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Gray'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2005 Acura TL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$6,500</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>{'VIN': '19UUA66205A057554', 'Full Style Name': '4dr Sedan AT', 'Mileage': '124,328 mi.', 'Tire Mileage': '5 to 10K mi.', 'Transmission': 'Automatic', 'Drive Type': 'Front Wheel Drive', 'Engine': '270 HP @ 6200 RPM 6 cylinder, 3.2L', 'Fuel Economy': '20 MPG city 29 MPG highway', 'Doors': '4', 'Passengers': '5', 'Exterior': 'Silver'}</t>
         </is>
       </c>
     </row>
